--- a/biology/Mycologie/Fungiculture/Fungiculture.xlsx
+++ b/biology/Mycologie/Fungiculture/Fungiculture.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Fongiculture, myciculture
 La fungiculture (ou fongiculture), ou myciculture, est la culture des champignons.
@@ -512,11 +524,48 @@
           <t>Fungiculture humaine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Si la culture des champignons est attestée dès l'Antiquité, peu d'espèces, malgré les différents progrès réalisés au cours du XXe siècle, se révèlent intéressantes pour une culture de type industriel ou semi-industriel. La plus grosse part du marché est occupée par le champignon de Paris (Agaricus bisporus), ainsi que par des champignons asiatiques tels que le shiitaké (Lentinula edodes) ou le champignon noir (Auricularia auricula). Les cultures de champignons ont lieu dans les champignonnières ou à l'extérieur. La culture des champignons est appelée fungiculture ou myciculture, à ne pas confondre avec la mycoculture, une technique de culture en laboratoire utilisée en biologie (mycologie médicale) pour les mycètes d'intérêt médical ou vétérinaire.
-Principales espèces cultivées
-Agaricus bisporus — champignon de Paris
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Fungiculture</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fungiculture</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Fungiculture humaine</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Principales espèces cultivées</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Agaricus bisporus — champignon de Paris
 Cyclocybe aegerita — pholiote du peuplier
 Auricularia auricula-judae — oreille de Judas
 Hypsizygus tesselatus - buna-shiméji
@@ -525,44 +574,80 @@
 Pleurotus eryngii - pleurote du panicaud.
 Pleurotus ostreatus — pleurote en huître, et autres espèces voisines de pleurotes
 Psilocybe cubensis — psilo cubensis
-Volvariella volvacea — volvaire asiatique
-Production
-Il s'agit de champignons alimentaires sans distinction d'espèce.
+Volvariella volvacea — volvaire asiatique</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fungiculture</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fungiculture</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Fungiculture humaine</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit de champignons alimentaires sans distinction d'espèce.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Fungiculture</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Fungiculture</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Fungiculture animale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Différentes espèces animales autres que l'Homme cultivent des champignons pour s'en nourrir.
-Les fourmis champignonnistes, ou fourmis coupe-feuille, cultivent des champignons (principalement Leucoagaricus gongylophorus) dans leur fourmilière, sur un substrat constitué de morceaux de feuilles et de fleurs que les ouvrières collectent et mâchent. Elles se nourrissent des gongylidia (des hyphes hypertrophiés riches en nutriments)[1]. Elles vivent toutes en Amérique du Sud ou en Amérique centrale, dans l'écozone néotropique, et constituent une cinquantaine d'espèces réparties entre deux genres (Atta et Acromyrmex) de la tribu des Attini (famille des Formicidae, sous-famille des Myrmicinae).
-Les termites de la sous-famille des Macrotermitinae (en) (famille des Termitidae) cultivent des champignons du genre Termitomyces (famille des Lyophyllaceae) sur des fragments de végétaux, à l'intérieur de la termitière. Leur microbiote intestinal est constitué d'une communauté bactérienne capable de digérer les champignons, et non de flagellés comme chez les autres termites[2].
-Xyleborinus saxesenii (en) et Xyleborus affinis (en), des coléoptères sociaux de la famille des Curculionidae, creusent des galeries dans du bois ou d'autres végétaux comme la canne à sucre et se nourrissent des champignons (notamment du genre Raffaelea, famille des Ophiostomataceae) qui se développent sur la surface interne de ces galeries. La femelle fondatrice de la colonie apporte les spores des champignons dans son système digestif ou dans son mycangium, une poche spécialisée. Les champignons bénéfiques sont sélectionnés grâce à une sécrétion contenant une bactérie qui produit de la cycloheximide (un antibiotique qui détruit les autres espèces fongiques)[3],[4].
-On ne sait pas comment la domestication des champignons est apparue chez ces insectes sociaux de trois ordres différents. Les Macrotermitinae (en) cultivaient déjà un ancêtre des Termitomyces il y a 30 Ma. Les termites et les coléoptères qui cultivent et consomment des champignons ont des microbiotes intestinaux semblables[5] ; ils sont d'ailleurs apparentés car on a trouvé dans de l'ambre datant de 25–30 Ma un fossile nommé Mastotermes electrodominicus dont l'ADN confirme l'existence d'un ancêtre commun aux isoptères, mantoptères et blattoptères (super-ordre des dictyoptères)[6].
+Les fourmis champignonnistes, ou fourmis coupe-feuille, cultivent des champignons (principalement Leucoagaricus gongylophorus) dans leur fourmilière, sur un substrat constitué de morceaux de feuilles et de fleurs que les ouvrières collectent et mâchent. Elles se nourrissent des gongylidia (des hyphes hypertrophiés riches en nutriments). Elles vivent toutes en Amérique du Sud ou en Amérique centrale, dans l'écozone néotropique, et constituent une cinquantaine d'espèces réparties entre deux genres (Atta et Acromyrmex) de la tribu des Attini (famille des Formicidae, sous-famille des Myrmicinae).
+Les termites de la sous-famille des Macrotermitinae (en) (famille des Termitidae) cultivent des champignons du genre Termitomyces (famille des Lyophyllaceae) sur des fragments de végétaux, à l'intérieur de la termitière. Leur microbiote intestinal est constitué d'une communauté bactérienne capable de digérer les champignons, et non de flagellés comme chez les autres termites.
+Xyleborinus saxesenii (en) et Xyleborus affinis (en), des coléoptères sociaux de la famille des Curculionidae, creusent des galeries dans du bois ou d'autres végétaux comme la canne à sucre et se nourrissent des champignons (notamment du genre Raffaelea, famille des Ophiostomataceae) qui se développent sur la surface interne de ces galeries. La femelle fondatrice de la colonie apporte les spores des champignons dans son système digestif ou dans son mycangium, une poche spécialisée. Les champignons bénéfiques sont sélectionnés grâce à une sécrétion contenant une bactérie qui produit de la cycloheximide (un antibiotique qui détruit les autres espèces fongiques),.
+On ne sait pas comment la domestication des champignons est apparue chez ces insectes sociaux de trois ordres différents. Les Macrotermitinae (en) cultivaient déjà un ancêtre des Termitomyces il y a 30 Ma. Les termites et les coléoptères qui cultivent et consomment des champignons ont des microbiotes intestinaux semblables ; ils sont d'ailleurs apparentés car on a trouvé dans de l'ambre datant de 25–30 Ma un fossile nommé Mastotermes electrodominicus dont l'ADN confirme l'existence d'un ancêtre commun aux isoptères, mantoptères et blattoptères (super-ordre des dictyoptères).
 </t>
         </is>
       </c>
